--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -2004,11 +2004,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20512]20512-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1210348</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1053,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6674789699</x:v>
+        <x:v>45912.0243352199</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1085,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0243352199</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1117,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45912.023521956</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.023521956</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6769051273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6769051273</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45912.0234185995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45912.0242148148</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0242148148</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان عصام محمد احمد وهبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nourhan Essam Mohamed Ahmed Wahba</x:t>
   </x:si>
   <x:si>
     <x:t>1210034</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45926.4102671643</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -132,6 +132,15 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -186,22 +195,13 @@
     <x:t>Omar Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد اشرف محمد مصلحى زمزم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ashraf</x:t>
+    <x:t>1220271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مالك سامح اسماعيل عبدالحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malek Sameh Esmael Abdelhameed</x:t>
   </x:si>
   <x:si>
     <x:t>1210076</x:t>
@@ -249,15 +249,6 @@
     <x:t>Mahmoud Khaled Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210297</x:t>
   </x:si>
   <x:si>
@@ -310,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
   </x:si>
   <x:si>
     <x:t>1220151</x:t>
@@ -1213,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45927.4146568287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6769051273</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45927.4152559838</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45927.4146510417</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -258,6 +258,15 @@
     <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
   </x:si>
   <x:si>
+    <x:t>1220144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4210425</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Meriam Tamer Saddik Hanna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1220204</x:t>
@@ -780,7 +780,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45927.9738076389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
     <x:t>1210149</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4146568287</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45927.4152559838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4152559838</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45912.0234185995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45912.0242148148</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0242148148</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45927.9738076389</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.9738076389</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.6646581019</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45927.4146510417</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4146510417</x:v>
+        <x:v>45926.4102671643</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.4102671643</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6775691319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45912.0232952546</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد مروان كامل عبد العزيز محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220158</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>ARWA MOHAMED MAHMOUD MOHAMED IBRAHIM</x:t>
   </x:si>
   <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210403</x:t>
   </x:si>
   <x:si>
@@ -78,6 +96,15 @@
     <x:t>Ahmed Emad AbdAllah Elbahrawi</x:t>
   </x:si>
   <x:si>
+    <x:t>4220110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد الأمير سيد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MOHAMMED ELAMIR SAYED MAHMOUD</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210126</x:t>
   </x:si>
   <x:si>
@@ -87,6 +114,15 @@
     <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ميشيل فاروق مسعد بولس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir Michel Farouk Mosaad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210348</x:t>
   </x:si>
   <x:si>
@@ -96,6 +132,15 @@
     <x:t>Bishoy Botros Enaam Shehata</x:t>
   </x:si>
   <x:si>
+    <x:t>1210132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210049</x:t>
   </x:si>
   <x:si>
@@ -105,6 +150,15 @@
     <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى ايمن وفائى محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Ayman Wafaey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210214</x:t>
   </x:si>
   <x:si>
@@ -114,6 +168,12 @@
     <x:t>Hazem mohamed abdelsalam lotfy</x:t>
   </x:si>
   <x:si>
+    <x:t>4220116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210099</x:t>
   </x:si>
   <x:si>
@@ -123,6 +183,33 @@
     <x:t>Khaled Ayman Abdelazem Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا عاطف سعد عرفه موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Atef saad arafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان محمد سموءل رزق سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan Mohamed Samawal Rezk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210242</x:t>
   </x:si>
   <x:si>
@@ -132,6 +219,33 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
+    <x:t>4220120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاصم على محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assem Ali Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن تامر حنفي محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210149</x:t>
   </x:si>
   <x:si>
@@ -141,6 +255,24 @@
     <x:t>Abdullah Amir Abdel monegan khafagy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdulrhman khalid mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود سعدالدين احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdel Rahman Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210059</x:t>
   </x:si>
   <x:si>
@@ -159,6 +291,15 @@
     <x:t>Abdelrahman wael abdelrazek el seid</x:t>
   </x:si>
   <x:si>
+    <x:t>1210063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على وائل محمد على احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ali wael mohammed ali ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220186</x:t>
   </x:si>
   <x:si>
@@ -168,6 +309,15 @@
     <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد خليل محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Khalil Mohamed Khalaf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210066</x:t>
   </x:si>
   <x:si>
@@ -177,6 +327,15 @@
     <x:t>Omar Sobhy Ellethy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عبد الصمد ذكى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Abdel Samad Zaky</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210268</x:t>
   </x:si>
   <x:si>
@@ -186,6 +345,42 @@
     <x:t>Omar Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد صديق جاد الرب محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Seddeek Gad Elrab Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم أشرف وجدى دسوقى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kareem Ashraf wagdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن احمد محمود سامي عبد المطلب شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Ahmed Mahmoud Sami Abdel-Mottalib Shehata</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220271</x:t>
   </x:si>
   <x:si>
@@ -204,6 +399,24 @@
     <x:t>Mohamed sherif alaa gamal eldin</x:t>
   </x:si>
   <x:si>
+    <x:t>1210159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد صبرى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Sabry Hassan Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالعاطى محمد عبدالعاطى عطوة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210290</x:t>
   </x:si>
   <x:si>
@@ -267,6 +480,24 @@
     <x:t>Meriam Tamer Saddik Hanna</x:t>
   </x:si>
   <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220204</x:t>
   </x:si>
   <x:si>
@@ -276,6 +507,24 @@
     <x:t>Mostafa Haytham Fawzy Mostafa Elmansy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك ياسر سعد احمد سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>malak yasser saad ahmed sallam</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210031</x:t>
   </x:si>
   <x:si>
@@ -346,6 +595,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohsen Samy Yakoub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -461,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +1019,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T65"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -770,7 +1028,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="37.110625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.520625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -852,7 +1110,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6650521991</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -884,7 +1142,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45906.6650521991</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -916,7 +1174,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6650118403</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -948,7 +1206,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6647093403</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +1238,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6650357292</x:v>
+        <x:v>45906.6650118403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +1270,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.6647093403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1302,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.0243352199</x:v>
+        <x:v>45906.6650357292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1334,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1366,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.023521956</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1398,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1430,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45912.0243352199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1462,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1494,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0230001157</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1526,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1558,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45912.023521956</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1328,11 +1586,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,16 +1611,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,16 +1643,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4152559838</x:v>
+        <x:v>45906.6759029745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,16 +1675,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45906.6753183681</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,16 +1707,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0234185995</x:v>
+        <x:v>45906.6768920949</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,16 +1739,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0242148148</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,16 +1771,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6670208333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,16 +1803,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649344907</x:v>
+        <x:v>45906.6672116551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,16 +1835,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45928.9334273958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,16 +1867,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.9738076389</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,16 +1899,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6771461458</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,16 +1931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45906.4160982639</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,16 +1963,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646581019</x:v>
+        <x:v>45912.0230001157</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,16 +1995,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,16 +2027,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4146510417</x:v>
+        <x:v>45906.6661680556</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,16 +2059,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.4102671643</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,16 +2091,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.6685110301</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,16 +2123,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6775691319</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,16 +2155,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0232952546</x:v>
+        <x:v>45906.6662139699</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1931,16 +2187,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1958,16 +2214,944 @@
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
     </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.6718613426</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45906.6693445255</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45906.6658026968</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45906.6651860301</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45927.4152559838</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.6645832986</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45906.671730706</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45906.7459977199</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45912.0234185995</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45912.0242148148</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45906.6650076736</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45906.6649344907</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.6648501968</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45927.9738076389</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45906.6771461458</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45906.6648384606</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45927.9740179745</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45906.6646466435</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45906.6651516551</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45906.6757055208</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:20">
+      <x:c r="A57" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E57" s="3">
+        <x:v>45906.6646581019</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="2" t="s"/>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45906.6644506944</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45927.4146510417</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45926.4102671643</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20">
+      <x:c r="A62" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E62" s="3">
+        <x:v>45906.6775691319</x:v>
+      </x:c>
+      <x:c r="F62" s="2" t="s"/>
+      <x:c r="G62" s="2" t="s"/>
+      <x:c r="H62" s="2" t="s"/>
+      <x:c r="I62" s="2" t="s"/>
+      <x:c r="J62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="L62" s="2" t="s"/>
+      <x:c r="M62" s="2" t="s"/>
+      <x:c r="N62" s="2" t="s"/>
+      <x:c r="O62" s="2" t="s"/>
+      <x:c r="P62" s="2" t="s"/>
+      <x:c r="Q62" s="2" t="s"/>
+      <x:c r="R62" s="2" t="s"/>
+      <x:c r="S62" s="2" t="s"/>
+      <x:c r="T62" s="2" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:20">
+      <x:c r="A63" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D63" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E63" s="3">
+        <x:v>45912.0232952546</x:v>
+      </x:c>
+      <x:c r="F63" s="2" t="s"/>
+      <x:c r="G63" s="2" t="s"/>
+      <x:c r="H63" s="2" t="s"/>
+      <x:c r="I63" s="2" t="s"/>
+      <x:c r="J63" s="2" t="s"/>
+      <x:c r="K63" s="2" t="s"/>
+      <x:c r="L63" s="2" t="s"/>
+      <x:c r="M63" s="2" t="s"/>
+      <x:c r="N63" s="2" t="s"/>
+      <x:c r="O63" s="2" t="s"/>
+      <x:c r="P63" s="2" t="s"/>
+      <x:c r="Q63" s="2" t="s"/>
+      <x:c r="R63" s="2" t="s"/>
+      <x:c r="S63" s="2" t="s"/>
+      <x:c r="T63" s="2" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20">
+      <x:c r="A64" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D64" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="E64" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F64" s="2" t="s"/>
+      <x:c r="G64" s="2" t="s"/>
+      <x:c r="H64" s="2" t="s"/>
+      <x:c r="I64" s="2" t="s"/>
+      <x:c r="J64" s="2" t="s"/>
+      <x:c r="K64" s="2" t="s"/>
+      <x:c r="L64" s="2" t="s"/>
+      <x:c r="M64" s="2" t="s"/>
+      <x:c r="N64" s="2" t="s"/>
+      <x:c r="O64" s="2" t="s"/>
+      <x:c r="P64" s="2" t="s"/>
+      <x:c r="Q64" s="2" t="s"/>
+      <x:c r="R64" s="2" t="s"/>
+      <x:c r="S64" s="2" t="s"/>
+      <x:c r="T64" s="2" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:20">
+      <x:c r="A65" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D65" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E65" s="3">
+        <x:v>45906.6666656597</x:v>
+      </x:c>
+      <x:c r="F65" s="2" t="s"/>
+      <x:c r="G65" s="2" t="s"/>
+      <x:c r="H65" s="2" t="s"/>
+      <x:c r="I65" s="2" t="s"/>
+      <x:c r="J65" s="2" t="s"/>
+      <x:c r="K65" s="2" t="s"/>
+      <x:c r="L65" s="2" t="s"/>
+      <x:c r="M65" s="2" t="s"/>
+      <x:c r="N65" s="2" t="s"/>
+      <x:c r="O65" s="2" t="s"/>
+      <x:c r="P65" s="2" t="s"/>
+      <x:c r="Q65" s="2" t="s"/>
+      <x:c r="R65" s="2" t="s"/>
+      <x:c r="S65" s="2" t="s"/>
+      <x:c r="T65" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MDPS479_Lecture-35698.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35698.xlsx
@@ -3147,11 +3147,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Embedded systems for Mechatronics Applications (MDPS479) Location : 20106- 240 Time : Wednesday(16:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
